--- a/biology/Médecine/Giuseppe_Ferlini/Giuseppe_Ferlini.xlsx
+++ b/biology/Médecine/Giuseppe_Ferlini/Giuseppe_Ferlini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Giuseppe Ferlini (23 avril 1797 – 30 décembre 1870[1]) est un médecin de combat italien devenu explorateur et chasseur de trésor. Il est connu pour avoir détruit et vandalisé plusieurs pyramides de Méroé, dans l'actuel Soudan.
+Giuseppe Ferlini (23 avril 1797 – 30 décembre 1870) est un médecin de combat italien devenu explorateur et chasseur de trésor. Il est connu pour avoir détruit et vandalisé plusieurs pyramides de Méroé, dans l'actuel Soudan.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Bologne, on sait que depuis 1815, il a traversé la Grèce et est par la suite arrivé en Égypte[1] ; là-bas, il a rejoint l'armée égyptienne lors de la conquête égyptienne du Soudan et en 1830, il est devenu chirurgien-major. Dans l'armée, il est resté à Sennar puis à Khartoum où il a rencontré le marchand albanais Antonio Stefani[2].  Plus tard, il décida de déserter et de se consacrer à la chasse au trésor, déterminé à « rentrer chez lui sans sou ou à emporter des trésors sans précédent »[3]. Ferlini organisa ainsi avec Stefani une expédition, qui partit pour Méroé le 10 août 1834[2]. 
-Une fois arrivé à Méroé et sous l'impulsion des travailleurs locaux qui mentionnaient une légende de 40 ardeb d'or, Ferlini commença à « attaquer » et à vandaliser plusieurs pyramides, qui avaient été trouvées « dans de bonnes conditions » par Frédéric Cailliaud quelques années auparavant[3]. À Wad ban Naqa, grâce aux dessins et plans de ce dernier, il nivela la pyramide « N6 » de la reine nubienne Candace Amanishakhéto en commençant par le haut et trouva finalement son trésor composé de dizaines de bijoux en or et en argent[3],[4]. Ces bijoux sont actuellement exposés à Munich et à Berlin (Ägyptisches Museum).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Bologne, on sait que depuis 1815, il a traversé la Grèce et est par la suite arrivé en Égypte ; là-bas, il a rejoint l'armée égyptienne lors de la conquête égyptienne du Soudan et en 1830, il est devenu chirurgien-major. Dans l'armée, il est resté à Sennar puis à Khartoum où il a rencontré le marchand albanais Antonio Stefani.  Plus tard, il décida de déserter et de se consacrer à la chasse au trésor, déterminé à « rentrer chez lui sans sou ou à emporter des trésors sans précédent ». Ferlini organisa ainsi avec Stefani une expédition, qui partit pour Méroé le 10 août 1834. 
+Une fois arrivé à Méroé et sous l'impulsion des travailleurs locaux qui mentionnaient une légende de 40 ardeb d'or, Ferlini commença à « attaquer » et à vandaliser plusieurs pyramides, qui avaient été trouvées « dans de bonnes conditions » par Frédéric Cailliaud quelques années auparavant. À Wad ban Naqa, grâce aux dessins et plans de ce dernier, il nivela la pyramide « N6 » de la reine nubienne Candace Amanishakhéto en commençant par le haut et trouva finalement son trésor composé de dizaines de bijoux en or et en argent,. Ces bijoux sont actuellement exposés à Munich et à Berlin (Ägyptisches Museum).
 			Pyramide « N6 » de la reine nubienne Candace Amanishakhéto avant sa destruction.
 			Pylône du temple-pyramide de la Candace Amanishakhéto.
-Globalement, il est considéré comme responsable de la destruction de plus de quarante pyramides[3],[5]. 
-Après avoir trouvé le trésor qu'il cherchait, Ferlini rentre chez lui en 1836[1]. Un an plus tard, il écrit un rapport de son expédition contenant un catalogue de ses découvertes, qui fut traduit en français et republié en 1838[note 1],[2]. Il tente de vendre le trésor, mais personne ne croyait, à ce moment-là, que des bijoux de qualité pourraient être fabriqués en Afrique noire. Ses découvertes sont finalement vendues en Allemagne : une partie de celles-ci sont achetées par le roi Louis Ier de Bavière et sont maintenant au Musée d'état d'art égyptien de Munich, tandis que le reste – par les suggestions de Karl Richard Lepsius et de Christian Charles Josias von Bunsen – est acheté par le musée égyptien de Berlin, où il se trouve toujours[3]. 
+Globalement, il est considéré comme responsable de la destruction de plus de quarante pyramides,. 
+Après avoir trouvé le trésor qu'il cherchait, Ferlini rentre chez lui en 1836. Un an plus tard, il écrit un rapport de son expédition contenant un catalogue de ses découvertes, qui fut traduit en français et republié en 1838[note 1],. Il tente de vendre le trésor, mais personne ne croyait, à ce moment-là, que des bijoux de qualité pourraient être fabriqués en Afrique noire. Ses découvertes sont finalement vendues en Allemagne : une partie de celles-ci sont achetées par le roi Louis Ier de Bavière et sont maintenant au Musée d'état d'art égyptien de Munich, tandis que le reste – par les suggestions de Karl Richard Lepsius et de Christian Charles Josias von Bunsen – est acheté par le musée égyptien de Berlin, où il se trouve toujours. 
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Sépulture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ferlini meurt à Bologne le 30 décembre 1870 et est enterré au cimetière monumental de la Chartreuse de Bologne[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferlini meurt à Bologne le 30 décembre 1870 et est enterré au cimetière monumental de la Chartreuse de Bologne.
 </t>
         </is>
       </c>
